--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
+++ b/docs/ValueSet-EducationStatusVS-TWLTC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
